--- a/Responses/QuixBugs_Gemini/APR/APR_zero_shot_Gemini_1.5_Flash_Python.xlsx
+++ b/Responses/QuixBugs_Gemini/APR/APR_zero_shot_Gemini_1.5_Flash_Python.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mraee\Desktop\Investigation\Bug Busters\Responses\QuixBugs_Gemini\APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A6069643-8640-4207-BACB-53C6EE9DB14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49C1C8A-7A18-4AA1-A0FF-66356271C8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{13997FDD-54B6-4BAC-BFB4-495663146EFE}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{13997FDD-54B6-4BAC-BFB4-495663146EFE}"/>
   </bookViews>
   <sheets>
     <sheet name="APR_zero_shot_Gemini_1.5_Flash_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="307">
   <si>
     <t>File Name</t>
   </si>
@@ -3387,6 +3400,564 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collected 7 items
+test_find_first_in_sorted.py .......                                                              [100%] 
+========================================== 7 passed in 0.10s =========================================== </t>
+  </si>
+  <si>
+    <t xml:space="preserve">collected 11 items
+test_get_factors.py .F.F...FF.F                                                                   [100%]
+=============================================== FAILURES =============================================== 
+_______________________________ test_get_factors[input_data1-expected1] ________________________________ 
+input_data = [100], expected = [2, 2, 5, 5]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_get_factors(input_data, expected):
+&gt;       assert get_factors(*input_data) == expected
+E       assert [2, 2, 2, 2, 5, 5, ...] == [2, 2, 5, 5]
+E
+E         At index 2 diff: 2 != 5
+E         Left contains 3 more items, first extra item: 5
+E         Use -v to get more diff
+test_get_factors.py:21: AssertionError
+_______________________________ test_get_factors[input_data3-expected3] ________________________________ 
+input_data = [104], expected = [2, 2, 2, 13]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_get_factors(input_data, expected):
+&gt;       assert get_factors(*input_data) == expected
+E       assert [2, 2, 2, 2, 2, 2, ...] == [2, 2, 2, 13]
+E
+E         At index 3 diff: 2 != 13
+E         Left contains 3 more items, first extra item: 2
+E         Use -v to get more diff
+test_get_factors.py:21: AssertionError
+_______________________________ test_get_factors[input_data7-expected7] ________________________________ 
+input_data = [63], expected = [3, 3, 7]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_get_factors(input_data, expected):
+&gt;       assert get_factors(*input_data) == expected
+E       assert [3, 3, 3, 3, 7] == [3, 3, 7]
+E
+E         At index 2 diff: 3 != 7
+E         Left contains 2 more items, first extra item: 3
+E         Use -v to get more diff
+test_get_factors.py:21: AssertionError
+_______________________________ test_get_factors[input_data8-expected8] ________________________________ 
+input_data = [74], expected = [2, 37]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_get_factors(input_data, expected):
+&gt;       assert get_factors(*input_data) == expected
+E       assert [2, 2, 37] == [2, 37]
+E
+E         At index 1 diff: 2 != 37
+E         Left contains one more item: 37
+E         Use -v to get more diff
+test_get_factors.py:21: AssertionError
+______________________________ test_get_factors[input_data10-expected10] _______________________________ 
+input_data = [9837], expected = [3, 3, 1093]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_get_factors(input_data, expected):
+&gt;       assert get_factors(*input_data) == expected
+E       assert [3, 3, 3, 3, 1093] == [3, 3, 1093]
+E
+E         At index 2 diff: 3 != 1093
+E         Left contains 2 more items, first extra item: 3
+E         Use -v to get more diff
+test_get_factors.py:21: AssertionError
+======================================= short test summary info ======================================== 
+FAILED test_get_factors.py::test_get_factors[input_data1-expected1] - assert [2, 2, 2, 2, 5, 5, ...] == [2, 2, 5, 5]
+FAILED test_get_factors.py::test_get_factors[input_data3-expected3] - assert [2, 2, 2, 2, 2, 2, ...] == [2, 2, 2, 13]
+FAILED test_get_factors.py::test_get_factors[input_data7-expected7] - assert [3, 3, 3, 3, 7] == [3, 3, 7]
+FAILED test_get_factors.py::test_get_factors[input_data8-expected8] - assert [2, 2, 37] == [2, 37]       
+FAILED test_get_factors.py::test_get_factors[input_data10-expected10] - assert [3, 3, 3, 3, 1093] == [3, 3, 1093]
+===================================== 5 failed, 6 passed in 0.27s ====================================== </t>
+  </si>
+  <si>
+    <t xml:space="preserve">collected 10 items
+test_knapsack.py FFFFFFFFFF                                                                       [100%]
+=============================================== FAILURES =============================================== 
+____________________________________ test_knapsack[input_data0-19] _____________________________________ 
+input_data = [100, [[60, 10], [50, 8], [20, 4], [20, 4], [8, 3], [3, 2]]], expected = 19
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_knapsack(input_data, expected):
+&gt;       if not pytest.run_slow and input_data == [
+            6404180,
+            [
+                [382745, 825594],
+                [799601, 1677009],
+                [909247, 1676628],
+                [729069, 1523970],
+                [467902, 943972],
+                [44328, 97426],
+                [34610, 69666],
+                [698150, 1296457],
+                [823460, 1679693],
+                [903959, 1902996],
+                [853665, 1844992],
+                [551830, 1049289],
+                [610856, 1252836],
+                [670702, 1319836],
+                [488960, 953277],
+                [951111, 2067538],
+                [323046, 675367],
+                [446298, 853655],
+                [931161, 1826027],
+                [31385, 65731],
+                [496951, 901489],
+                [264724, 577243],
+                [224916, 466257],
+                [169684, 369261],
+            ],
+        ]:
+E       AttributeError: module 'pytest' has no attribute 'run_slow'
+test_knapsack.py:30: AttributeError
+____________________________________ test_knapsack[input_data1-30] _____________________________________ 
+input_data = [40, [[30, 10], [50, 5], [10, 20], [40, 25]]], expected = 30
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_knapsack(input_data, expected):
+&gt;       if not pytest.run_slow and input_data == [
+            6404180,
+            [
+                [382745, 825594],
+                [799601, 1677009],
+                [909247, 1676628],
+                [729069, 1523970],
+                [467902, 943972],
+                [44328, 97426],
+                [34610, 69666],
+                [698150, 1296457],
+                [823460, 1679693],
+                [903959, 1902996],
+                [853665, 1844992],
+                [551830, 1049289],
+                [610856, 1252836],
+                [670702, 1319836],
+                [488960, 953277],
+                [951111, 2067538],
+                [323046, 675367],
+                [446298, 853655],
+                [931161, 1826027],
+                [31385, 65731],
+                [496951, 901489],
+                [264724, 577243],
+                [224916, 466257],
+                [169684, 369261],
+            ],
+        ]:
+E       AttributeError: module 'pytest' has no attribute 'run_slow'
+test_knapsack.py:30: AttributeError
+___________________________________ test_knapsack[input_data2-1458] ____________________________________ 
+input_data = [750, [[70, 135], [73, 139], [77, 149], [80, 150], [82, 156], [87, 163], ...]]
+expected = 1458
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_knapsack(input_data, expected):
+&gt;       if not pytest.run_slow and input_data == [
+            6404180,
+            [
+                [382745, 825594],
+                [799601, 1677009],
+                [909247, 1676628],
+                [729069, 1523970],
+                [467902, 943972],
+                [44328, 97426],
+                [34610, 69666],
+                [698150, 1296457],
+                [823460, 1679693],
+                [903959, 1902996],
+                [853665, 1844992],
+                [551830, 1049289],
+                [610856, 1252836],
+                [670702, 1319836],
+                [488960, 953277],
+                [951111, 2067538],
+                [323046, 675367],
+                [446298, 853655],
+                [931161, 1826027],
+                [31385, 65731],
+                [496951, 901489],
+                [264724, 577243],
+                [224916, 466257],
+                [169684, 369261],
+            ],
+        ]:
+E       AttributeError: module 'pytest' has no attribute 'run_slow'
+test_knapsack.py:30: AttributeError
+____________________________________ test_knapsack[input_data3-51] _____________________________________ 
+input_data = [26, [[12, 24], [7, 13], [11, 23], [8, 15], [9, 16]]], expected = 51
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_knapsack(input_data, expected):
+&gt;       if not pytest.run_slow and input_data == [
+            6404180,
+            [
+                [382745, 825594],
+                [799601, 1677009],
+                [909247, 1676628],
+                [729069, 1523970],
+                [467902, 943972],
+                [44328, 97426],
+                [34610, 69666],
+                [698150, 1296457],
+                [823460, 1679693],
+                [903959, 1902996],
+                [853665, 1844992],
+                [551830, 1049289],
+                [610856, 1252836],
+                [670702, 1319836],
+                [488960, 953277],
+                [951111, 2067538],
+                [323046, 675367],
+                [446298, 853655],
+                [931161, 1826027],
+                [31385, 65731],
+                [496951, 901489],
+                [264724, 577243],
+                [224916, 466257],
+                [169684, 369261],
+            ],
+        ]:
+E       AttributeError: module 'pytest' has no attribute 'run_slow'
+test_knapsack.py:30: AttributeError
+____________________________________ test_knapsack[input_data4-107] ____________________________________ 
+input_data = [50, [[31, 70], [10, 20], [20, 39], [19, 37], [4, 7], [3, 5], ...]], expected = 107
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_knapsack(input_data, expected):
+&gt;       if not pytest.run_slow and input_data == [
+            6404180,
+            [
+                [382745, 825594],
+                [799601, 1677009],
+                [909247, 1676628],
+                [729069, 1523970],
+                [467902, 943972],
+                [44328, 97426],
+                [34610, 69666],
+                [698150, 1296457],
+                [823460, 1679693],
+                [903959, 1902996],
+                [853665, 1844992],
+                [551830, 1049289],
+                [610856, 1252836],
+                [670702, 1319836],
+                [488960, 953277],
+                [951111, 2067538],
+                [323046, 675367],
+                [446298, 853655],
+                [931161, 1826027],
+                [31385, 65731],
+                [496951, 901489],
+                [264724, 577243],
+                [224916, 466257],
+                [169684, 369261],
+            ],
+        ]:
+E       AttributeError: module 'pytest' has no attribute 'run_slow'
+test_knapsack.py:30: AttributeError
+____________________________________ test_knapsack[input_data5-150] ____________________________________ 
+input_data = [190, [[56, 50], [59, 50], [80, 64], [64, 46], [75, 50], [17, 5]]], expected = 150
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_knapsack(input_data, expected):
+&gt;       if not pytest.run_slow and input_data == [
+            6404180,
+            [
+                [382745, 825594],
+                [799601, 1677009],
+                [909247, 1676628],
+                [729069, 1523970],
+                [467902, 943972],
+                [44328, 97426],
+                [34610, 69666],
+                [698150, 1296457],
+                [823460, 1679693],
+                [903959, 1902996],
+                [853665, 1844992],
+                [551830, 1049289],
+                [610856, 1252836],
+                [670702, 1319836],
+                [488960, 953277],
+                [951111, 2067538],
+                [323046, 675367],
+                [446298, 853655],
+                [931161, 1826027],
+                [31385, 65731],
+                [496951, 901489],
+                [264724, 577243],
+                [224916, 466257],
+                [169684, 369261],
+            ],
+        ]:
+E       AttributeError: module 'pytest' has no attribute 'run_slow'
+test_knapsack.py:30: AttributeError
+____________________________________ test_knapsack[input_data6-900] ____________________________________ 
+input_data = [104, [[25, 350], [35, 400], [45, 450], [5, 20], [25, 70], [3, 8], ...]], expected = 900    
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_knapsack(input_data, expected):
+&gt;       if not pytest.run_slow and input_data == [
+            6404180,
+            [
+                [382745, 825594],
+                [799601, 1677009],
+                [909247, 1676628],
+                [729069, 1523970],
+                [467902, 943972],
+                [44328, 97426],
+                [34610, 69666],
+                [698150, 1296457],
+                [823460, 1679693],
+                [903959, 1902996],
+                [853665, 1844992],
+                [551830, 1049289],
+                [610856, 1252836],
+                [670702, 1319836],
+                [488960, 953277],
+                [951111, 2067538],
+                [323046, 675367],
+                [446298, 853655],
+                [931161, 1826027],
+                [31385, 65731],
+                [496951, 901489],
+                [264724, 577243],
+                [224916, 466257],
+                [169684, 369261],
+            ],
+        ]:
+E       AttributeError: module 'pytest' has no attribute 'run_slow'
+test_knapsack.py:30: AttributeError
+____________________________________ test_knapsack[input_data7-309] ____________________________________ 
+input_data = [165, [[23, 92], [31, 57], [29, 49], [44, 68], [53, 60], [38, 43], ...]], expected = 309    
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_knapsack(input_data, expected):
+&gt;       if not pytest.run_slow and input_data == [
+            6404180,
+            [
+                [382745, 825594],
+                [799601, 1677009],
+                [909247, 1676628],
+                [729069, 1523970],
+                [467902, 943972],
+                [44328, 97426],
+                [34610, 69666],
+                [698150, 1296457],
+                [823460, 1679693],
+                [903959, 1902996],
+                [853665, 1844992],
+                [551830, 1049289],
+                [610856, 1252836],
+                [670702, 1319836],
+                [488960, 953277],
+                [951111, 2067538],
+                [323046, 675367],
+                [446298, 853655],
+                [931161, 1826027],
+                [31385, 65731],
+                [496951, 901489],
+                [264724, 577243],
+                [224916, 466257],
+                [169684, 369261],
+            ],
+        ]:
+E       AttributeError: module 'pytest' has no attribute 'run_slow'
+test_knapsack.py:30: AttributeError
+___________________________________ test_knapsack[input_data8-1735] ____________________________________ 
+input_data = [170, [[41, 442], [50, 525], [49, 511], [59, 593], [55, 546], [57, 564], ...]]
+expected = 1735
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_knapsack(input_data, expected):
+&gt;       if not pytest.run_slow and input_data == [
+            6404180,
+            [
+                [382745, 825594],
+                [799601, 1677009],
+                [909247, 1676628],
+                [729069, 1523970],
+                [467902, 943972],
+                [44328, 97426],
+                [34610, 69666],
+                [698150, 1296457],
+                [823460, 1679693],
+                [903959, 1902996],
+                [853665, 1844992],
+                [551830, 1049289],
+                [610856, 1252836],
+                [670702, 1319836],
+                [488960, 953277],
+                [951111, 2067538],
+                [323046, 675367],
+                [446298, 853655],
+                [931161, 1826027],
+                [31385, 65731],
+                [496951, 901489],
+                [264724, 577243],
+                [224916, 466257],
+                [169684, 369261],
+            ],
+        ]:
+E       AttributeError: module 'pytest' has no attribute 'run_slow'
+test_knapsack.py:30: AttributeError
+_________________________________ test_knapsack[input_data9-13549094] __________________________________ 
+input_data = [6404180, [[382745, 825594], [799601, 1677009], [909247, 1676628], [729069, 1523970], [467902, 943972], [44328, 97426], ...]]
+expected = 13549094
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_knapsack(input_data, expected):
+&gt;       if not pytest.run_slow and input_data == [
+            6404180,
+            [
+                [382745, 825594],
+                [799601, 1677009],
+                [909247, 1676628],
+                [729069, 1523970],
+                [467902, 943972],
+                [44328, 97426],
+                [34610, 69666],
+                [698150, 1296457],
+                [823460, 1679693],
+                [903959, 1902996],
+                [853665, 1844992],
+                [551830, 1049289],
+                [610856, 1252836],
+                [670702, 1319836],
+                [488960, 953277],
+                [951111, 2067538],
+                [323046, 675367],
+                [446298, 853655],
+                [931161, 1826027],
+                [31385, 65731],
+                [496951, 901489],
+                [264724, 577243],
+                [224916, 466257],
+                [169684, 369261],
+            ],
+        ]:
+E       AttributeError: module 'pytest' has no attribute 'run_slow'
+test_knapsack.py:30: AttributeError
+======================================= short test summary info ========================================
+FAILED test_knapsack.py::test_knapsack[input_data0-19] - AttributeError: module 'pytest' has no attribute 'run_slow'
+FAILED test_knapsack.py::test_knapsack[input_data1-30] - AttributeError: module 'pytest' has no attribute 'run_slow'
+FAILED test_knapsack.py::test_knapsack[input_data2-1458] - AttributeError: module 'pytest' has no attribute 'run_slow'
+FAILED test_knapsack.py::test_knapsack[input_data3-51] - AttributeError: module 'pytest' has no attribute 'run_slow'
+FAILED test_knapsack.py::test_knapsack[input_data4-107] - AttributeError: module 'pytest' has no attribute 'run_slow'
+FAILED test_knapsack.py::test_knapsack[input_data5-150] - AttributeError: module 'pytest' has no attribute 'run_slow'
+FAILED test_knapsack.py::test_knapsack[input_data6-900] - AttributeError: module 'pytest' has no attribute 'run_slow'
+FAILED test_knapsack.py::test_knapsack[input_data7-309] - AttributeError: module 'pytest' has no attribute 'run_slow'
+FAILED test_knapsack.py::test_knapsack[input_data8-1735] - AttributeError: module 'pytest' has no attribute 'run_slow'
+FAILED test_knapsack.py::test_knapsack[input_data9-13549094] - AttributeError: module 'pytest' has no attribute 'run_slow'
+========================================== 10 failed in 0.46s ========================================== </t>
+  </si>
+  <si>
+    <t>collected 12 items
+test_lis.py ....F.....F.                                                                          [100%]
+=============================================== FAILURES =============================================== 
+_______________________________________ test_lis[input_data4-4] ________________________________________ 
+input_data = [[5, 1, 3, 4, 7]], expected = 4
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lis(input_data, expected):
+&gt;       assert lis(*input_data) == expected
+E       assert 2 == 4
+E        +  where 2 = lis(*[[5, 1, 3, 4, 7]])
+test_lis.py:27: AssertionError
+_______________________________________ test_lis[input_data10-3] _______________________________________ 
+input_data = [[7, 10, 9, 2, 3, 8, ...]], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lis(input_data, expected):
+&gt;       assert lis(*input_data) == expected
+E       assert 2 == 3
+E        +  where 2 = lis(*[[7, 10, 9, 2, 3, 8, ...]])
+test_lis.py:27: AssertionError
+======================================= short test summary info ======================================== 
+FAILED test_lis.py::test_lis[input_data4-4] - assert 2 == 4
+FAILED test_lis.py::test_lis[input_data10-3] - assert 2 == 3
+===================================== 2 failed, 10 passed in 0.22s =====================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;===================================== 9 failed, 1 passed in 1.32s ====================================== </t>
+  </si>
+  <si>
+    <t>collected 5 items
+test_powerset.py FFF.F                                                                            [100%]
+=============================================== FAILURES =============================================== 
+_________________________________ test_powerset[input_data0-expected0] _________________________________ 
+input_data = [['a', 'b', 'c']], expected = [[], ['c'], ['b'], ['b', 'c'], ['a'], ['a', 'c'], ...]        
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['a', 'b', '...], ['b'], ...] == [[], ['c'], [...a', 'c'], ...]
+E
+E         At index 0 diff: ['a', 'b', 'c'] != []
+E         Use -v to get more diff
+test_powerset.py:19: AssertionError
+_________________________________ test_powerset[input_data1-expected1] _________________________________ 
+input_data = [['a', 'b']], expected = [[], ['b'], ['a'], ['a', 'b']]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['a', 'b'], ['a'], ['b'], []] == [[], ['b'], ['a'], ['a', 'b']]
+E
+E         At index 0 diff: ['a', 'b'] != []
+E         Use -v to get more diff
+test_powerset.py:19: AssertionError
+_________________________________ test_powerset[input_data2-expected2] _________________________________ 
+input_data = [['a']], expected = [[], ['a']]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['a'], []] == [[], ['a']]
+E
+E         At index 0 diff: ['a'] != []
+E         Use -v to get more diff
+test_powerset.py:19: AssertionError
+_________________________________ test_powerset[input_data4-expected4] _________________________________ 
+input_data = [['x', 'df', 'z', 'm']], expected = [[], ['m'], ['z'], ['z', 'm'], ['df'], ['df', 'm'], ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_powerset(input_data, expected):
+&gt;       assert powerset(*input_data) == expected
+E       AssertionError: assert [['x', 'df', ...x', 'z'], ...] == [[], ['m'], [...f', 'm'], ...]
+E
+E         At index 0 diff: ['x', 'df', 'z', 'm'] != []
+E         Use -v to get more diff
+test_powerset.py:19: AssertionError
+======================================= short test summary info ======================================== 
+FAILED test_powerset.py::test_powerset[input_data0-expected0] - AssertionError: assert [['a', 'b', '...], ['b'], ...] == [[], ['c'], [...a', 'c'], ...]
+FAILED test_powerset.py::test_powerset[input_data1-expected1] - AssertionError: assert [['a', 'b'], ['a'], ['b'], []] == [[], ['b'], ['a'], ['a', 'b']]
+FAILED test_powerset.py::test_powerset[input_data2-expected2] - AssertionError: assert [['a'], []] == [[], ['a']]
+FAILED test_powerset.py::test_powerset[input_data4-expected4] - AssertionError: assert [['x', 'df', ...x', 'z'], ...] == [[], ['m'], [...f', 'm'], ...]
+===================================== 4 failed, 1 passed in 0.20s ======================================</t>
+  </si>
+  <si>
+    <t>collected 6 items
+test_rpn_eval.py F.F..F                                                                           [100%]
+=============================================== FAILURES =============================================== 
+____________________________________ test_rpn_eval[input_data0-4.0] ____________________________________ 
+input_data = [[3.0, 5.0, '+', 2.0, '/']], expected = 4.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert 0.25 == 4.0
+E        +  where 0.25 = rpn_eval(*[[3.0, 5.0, '+', 2.0, '/']])
+test_rpn_eval.py:34: AssertionError
+____________________________________ test_rpn_eval[input_data2-8.0] ____________________________________ 
+input_data = [[7.0, 4.0, '+', 3.0, '-']], expected = 8.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert -8.0 == 8.0
+E        +  where -8.0 = rpn_eval(*[[7.0, 4.0, '+', 3.0, '-']])
+test_rpn_eval.py:34: AssertionError
+___________________________________ test_rpn_eval[input_data5-14.0] ____________________________________ 
+input_data = [[5.0, 1.0, 2.0, '+', 4.0, '*', ...]], expected = 14.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert -14.0 == 14.0
+E        +  where -14.0 = rpn_eval(*[[5.0, 1.0, 2.0, '+', 4.0, '*', ...]])
+test_rpn_eval.py:34: AssertionError
+======================================= short test summary info ======================================== 
+FAILED test_rpn_eval.py::test_rpn_eval[input_data0-4.0] - AssertionError: assert 0.25 == 4.0
+FAILED test_rpn_eval.py::test_rpn_eval[input_data2-8.0] - AssertionError: assert -8.0 == 8.0
+FAILED test_rpn_eval.py::test_rpn_eval[input_data5-14.0] - AssertionError: assert -14.0 == 14.0
+===================================== 3 failed, 3 passed in 0.22s ======================================</t>
+  </si>
+  <si>
+    <t>Test Cases (For responses that are not identical to the correct code)</t>
   </si>
 </sst>
 </file>
@@ -4287,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F4638A-E9DE-45C3-AB61-F9B39FF4E8E7}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4301,7 +4872,7 @@
     <col min="9" max="11" width="34.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4332,8 +4903,11 @@
       <c r="J1" s="1" t="s">
         <v>294</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4365,7 +4939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4397,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4429,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4461,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4493,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -4522,10 +5096,13 @@
         <v>260</v>
       </c>
       <c r="J7" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -4557,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -4589,7 +5166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="368.75" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -4621,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -4652,8 +5229,11 @@
       <c r="J11" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -4685,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -4717,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -4749,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -4780,8 +5360,11 @@
       <c r="J15" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>77</v>
       </c>
@@ -4813,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -4845,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
@@ -4877,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -4908,8 +5491,11 @@
       <c r="J19" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
@@ -4941,7 +5527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
@@ -4973,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>107</v>
       </c>
@@ -5005,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
         <v>112</v>
       </c>
@@ -5037,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
         <v>117</v>
       </c>
@@ -5069,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
         <v>122</v>
       </c>
@@ -5101,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A26" s="3" t="s">
         <v>127</v>
       </c>
@@ -5129,7 +5715,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
         <v>132</v>
       </c>
@@ -5161,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
         <v>137</v>
       </c>
@@ -5192,8 +5778,11 @@
       <c r="J28" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K28" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
         <v>142</v>
       </c>
@@ -5224,8 +5813,11 @@
       <c r="J29" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K29" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
@@ -5257,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
         <v>152</v>
       </c>
@@ -5289,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
         <v>157</v>
       </c>
@@ -5319,6 +5911,9 @@
       </c>
       <c r="J32" s="5" t="b">
         <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -5658,7 +6253,7 @@
       </c>
       <c r="J43" s="1">
         <f>COUNTIF(J2:J42,TRUE)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.75">
@@ -5678,7 +6273,7 @@
       </c>
       <c r="J44" s="1">
         <f>COUNTIF(J2:J42,FALSE)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.75">
@@ -5698,10 +6293,11 @@
       </c>
       <c r="J45" s="1">
         <f>J43/(J43+J44)*100</f>
-        <v>82.5</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>